--- a/编码表格.xlsx
+++ b/编码表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEANC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\OUCDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31438E92-4AC0-460E-9DF4-1F47A5A65705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722EF69A-7105-4CBC-86FE-267D6BC942BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1545" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1186,48 +1186,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,6 +1235,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,20 +1576,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="11"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1608,12 +1608,12 @@
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1710,40 +1710,40 @@
     </row>
     <row r="7" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="24" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="G8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1871,40 +1871,40 @@
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="G16" s="24" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="G16" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="G17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2032,47 +2032,47 @@
     </row>
     <row r="23" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="G24" s="24" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
     </row>
     <row r="25" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="G25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2227,47 +2227,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D661B-511B-45DE-A7A7-1B22091A59C7}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="12" max="16" width="12.375" customWidth="1"/>
     <col min="17" max="17" width="32.75" customWidth="1"/>
     <col min="18" max="21" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
@@ -2279,7 +2285,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -2312,18 +2318,18 @@
       <c r="L3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="29"/>
+      <c r="R3" s="46"/>
       <c r="S3" s="21" t="s">
         <v>35</v>
       </c>
@@ -2335,7 +2341,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
@@ -2363,7 +2369,7 @@
       <c r="J4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="52" t="s">
         <v>64</v>
       </c>
       <c r="M4" s="21" t="s">
@@ -2395,7 +2401,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2425,7 +2431,7 @@
       <c r="J5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="21" t="s">
         <v>50</v>
       </c>
@@ -2455,25 +2461,25 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="L6" s="52" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="21" t="s">
@@ -2523,46 +2529,46 @@
       <c r="F7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29" t="s">
+      <c r="J7" s="46"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29" t="s">
+      <c r="N7" s="46"/>
+      <c r="O7" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29" t="s">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29" t="s">
+      <c r="R7" s="46"/>
+      <c r="S7" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
       <c r="L8" s="20" t="s">
         <v>66</v>
       </c>
@@ -2581,14 +2587,14 @@
       <c r="Q8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29" t="s">
+      <c r="S8" s="46"/>
+      <c r="T8" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="29"/>
+      <c r="U8" s="46"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
@@ -2631,6 +2637,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A8:J8"/>
@@ -2644,17 +2661,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2666,71 +2672,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5590A398-DA2E-4672-AEA3-FF52F1FA1ACB}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="48"/>
-    <col min="11" max="11" width="16.75" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="48"/>
+    <col min="10" max="10" width="13.75" style="34"/>
+    <col min="11" max="11" width="16.75" style="34" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="34"/>
     <col min="13" max="13" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="22">
         <v>24</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="22">
         <v>300000000</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F2" s="44">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="35" t="s">
         <v>176</v>
       </c>
       <c r="M2" t="s">
@@ -2738,37 +2744,37 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="22">
         <v>16</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="22">
         <v>1000000000</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F3" s="44">
-        <v>0</v>
-      </c>
-      <c r="H3" s="49" t="s">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="35" t="s">
         <v>176</v>
       </c>
       <c r="M3" t="s">
@@ -2776,2255 +2782,2255 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="22">
         <v>24</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="22">
         <v>300000000</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="22">
         <v>48</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="22">
         <v>300000000</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="22">
         <v>5000000000</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="30">
         <v>500000000</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="22">
         <v>24</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="22">
         <v>300000000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="49" t="s">
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="36" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="22">
         <v>16</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="22">
         <v>1000000000</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="36" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="22">
         <v>24</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="22">
         <v>300000000</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="22">
         <v>5000000000</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="30">
         <v>500000000</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="22">
         <v>16</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="22">
         <v>20000000</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="49" t="s">
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="22">
         <v>24</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="22">
         <v>16</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="22">
         <v>300000000</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49" t="s">
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="22">
         <v>24</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="22">
         <v>1800000000</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="22">
         <v>5000000000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="30">
         <v>500000000</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="22">
         <v>24</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="22">
         <v>1800000000</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="22">
         <v>5000000000</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="30">
         <v>500000000</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="22">
         <v>16</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="22">
         <v>300000000</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F14" s="44">
-        <v>0</v>
-      </c>
-      <c r="H14" s="49" t="s">
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="22">
         <v>16</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="22">
         <v>300000000</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="H15" s="49" t="s">
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="22">
         <v>24</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="22">
         <v>1000000000</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="49" t="s">
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50" t="s">
+      <c r="J16" s="36"/>
+      <c r="K16" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="36" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="22">
         <v>24</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="22">
         <v>300000000</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="22">
         <v>5000000000</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="30">
         <v>500000000</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="36"/>
+      <c r="K17" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="36" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="22">
         <v>16</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="22">
         <v>300000000</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="49" t="s">
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="49" t="s">
+      <c r="L18" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="22">
         <v>24</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="22">
         <v>300000000</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F19" s="44">
-        <v>0</v>
-      </c>
-      <c r="H19" s="49" t="s">
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50" t="s">
+      <c r="J19" s="36"/>
+      <c r="K19" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="22">
         <v>16</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="22">
         <v>300000000</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F20" s="44">
-        <v>0</v>
-      </c>
-      <c r="H20" s="49" t="s">
+      <c r="F20" s="30">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50" t="s">
+      <c r="J20" s="36"/>
+      <c r="K20" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="22">
         <v>16</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="22">
         <v>20000000</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="22">
         <v>500000000</v>
       </c>
-      <c r="F21" s="44">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49" t="s">
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="22">
         <v>24</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F22" s="44">
-        <v>0</v>
-      </c>
-      <c r="H22" s="49" t="s">
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="37" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="22">
         <v>24</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="22">
         <v>300000000</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F23" s="44">
-        <v>0</v>
-      </c>
-      <c r="H23" s="49" t="s">
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="22">
         <v>16</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="22">
         <v>300000000</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F24" s="44">
-        <v>0</v>
-      </c>
-      <c r="H24" s="49" t="s">
+      <c r="F24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50" t="s">
+      <c r="J24" s="36"/>
+      <c r="K24" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="22">
         <v>24</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="22">
         <v>20000000</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F25" s="44">
-        <v>0</v>
-      </c>
-      <c r="H25" s="49" t="s">
+      <c r="F25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50" t="s">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="36">
-        <v>0</v>
-      </c>
-      <c r="D26" s="36">
-        <v>0</v>
-      </c>
-      <c r="E26" s="36">
-        <v>0</v>
-      </c>
-      <c r="F26" s="44">
-        <v>0</v>
-      </c>
-      <c r="H26" s="49" t="s">
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="22">
         <v>24</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="22">
         <v>1800000000</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="22">
         <v>5000000000</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="30">
         <v>500000000</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="22">
         <v>24</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="22">
         <v>300000000</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F28" s="44">
-        <v>0</v>
-      </c>
-      <c r="H28" s="49" t="s">
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50" t="s">
+      <c r="J28" s="36"/>
+      <c r="K28" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="22">
         <v>16</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="22">
         <v>300000000</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F29" s="44">
-        <v>0</v>
-      </c>
-      <c r="H29" s="49" t="s">
+      <c r="F29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="22">
         <v>24</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="22">
         <v>20000000</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F30" s="44">
-        <v>0</v>
-      </c>
-      <c r="H30" s="49" t="s">
+      <c r="F30" s="30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50" t="s">
+      <c r="J30" s="36"/>
+      <c r="K30" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="22">
         <v>16</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="22">
         <v>300000000</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F31" s="44">
-        <v>0</v>
-      </c>
-      <c r="H31" s="49" t="s">
+      <c r="F31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50" t="s">
+      <c r="J31" s="36"/>
+      <c r="K31" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="22">
         <v>24</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="22">
         <v>1000000000</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F32" s="44">
-        <v>0</v>
-      </c>
-      <c r="H32" s="49" t="s">
+      <c r="F32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="I32" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50" t="s">
+      <c r="J32" s="36"/>
+      <c r="K32" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="22">
         <v>16</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="22">
         <v>20000000</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F33" s="44">
-        <v>0</v>
-      </c>
-      <c r="H33" s="49" t="s">
+      <c r="F33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50" t="s">
+      <c r="J33" s="36"/>
+      <c r="K33" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="22">
         <v>24</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="22">
         <v>300000000</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F34" s="44">
-        <v>0</v>
-      </c>
-      <c r="H34" s="49" t="s">
+      <c r="F34" s="30">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="49" t="s">
+      <c r="I34" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50" t="s">
+      <c r="J34" s="36"/>
+      <c r="K34" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L34" s="50" t="s">
+      <c r="L34" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="22">
         <v>24</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="22">
         <v>20000000</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F35" s="44">
-        <v>0</v>
-      </c>
-      <c r="H35" s="49" t="s">
+      <c r="F35" s="30">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="52" t="s">
+      <c r="J35" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="36" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="22">
         <v>24</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="22">
         <v>1800000000</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="30">
         <v>500000000</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="52" t="s">
+      <c r="J36" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50" t="s">
+      <c r="K36" s="36"/>
+      <c r="L36" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="22">
         <v>24</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F37" s="44">
-        <v>0</v>
-      </c>
-      <c r="H37" s="49" t="s">
+      <c r="F37" s="30">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="49" t="s">
+      <c r="I37" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50" t="s">
+      <c r="J37" s="36"/>
+      <c r="K37" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="22">
         <v>16</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="22">
         <v>300000000</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F38" s="44">
-        <v>0</v>
-      </c>
-      <c r="H38" s="49" t="s">
+      <c r="F38" s="30">
+        <v>0</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="49" t="s">
+      <c r="I38" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50" t="s">
+      <c r="J38" s="36"/>
+      <c r="K38" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="22">
         <v>24</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="22">
         <v>300000000</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F39" s="44">
-        <v>0</v>
-      </c>
-      <c r="H39" s="49" t="s">
+      <c r="F39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50" t="s">
+      <c r="J39" s="36"/>
+      <c r="K39" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="22">
         <v>24</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F40" s="44">
-        <v>0</v>
-      </c>
-      <c r="H40" s="49" t="s">
+      <c r="F40" s="30">
+        <v>0</v>
+      </c>
+      <c r="H40" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J40" s="52" t="s">
+      <c r="J40" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50" t="s">
+      <c r="K40" s="36"/>
+      <c r="L40" s="36" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="22">
         <v>16</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="22">
         <v>300000000</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F41" s="44">
-        <v>0</v>
-      </c>
-      <c r="H41" s="49" t="s">
+      <c r="F41" s="30">
+        <v>0</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="I41" s="49" t="s">
+      <c r="I41" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50" t="s">
+      <c r="J41" s="36"/>
+      <c r="K41" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="22">
         <v>24</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="22">
         <v>300000000</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="30">
         <v>100000000</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="H42" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="49" t="s">
+      <c r="I42" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50" t="s">
+      <c r="J42" s="36"/>
+      <c r="K42" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="22">
         <v>16</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="22">
         <v>300000000</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F43" s="44">
-        <v>0</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="F43" s="30">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50" t="s">
+      <c r="J43" s="36"/>
+      <c r="K43" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="22">
         <v>16</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="22">
         <v>20000000</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F44" s="44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="F44" s="30">
+        <v>0</v>
+      </c>
+      <c r="H44" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="I44" s="49" t="s">
+      <c r="I44" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50" t="s">
+      <c r="J44" s="36"/>
+      <c r="K44" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="22">
         <v>16</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="22">
         <v>20000000</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="22">
         <v>500000000</v>
       </c>
-      <c r="F45" s="44">
-        <v>0</v>
-      </c>
-      <c r="H45" s="49" t="s">
+      <c r="F45" s="30">
+        <v>0</v>
+      </c>
+      <c r="H45" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="I45" s="49" t="s">
+      <c r="I45" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50" t="s">
+      <c r="J45" s="36"/>
+      <c r="K45" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="22">
         <v>16</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="22">
         <v>20000000</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="22">
         <v>500000000</v>
       </c>
-      <c r="F46" s="44">
-        <v>0</v>
-      </c>
-      <c r="H46" s="49" t="s">
+      <c r="F46" s="30">
+        <v>0</v>
+      </c>
+      <c r="H46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50" t="s">
+      <c r="J46" s="36"/>
+      <c r="K46" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="22">
         <v>16</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="22">
         <v>1000000000</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F47" s="44">
-        <v>0</v>
-      </c>
-      <c r="H47" s="49" t="s">
+      <c r="F47" s="30">
+        <v>0</v>
+      </c>
+      <c r="H47" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I47" s="49" t="s">
+      <c r="I47" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50" t="s">
+      <c r="J47" s="36"/>
+      <c r="K47" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="22">
         <v>24</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="22">
         <v>300000000</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F48" s="44">
-        <v>0</v>
-      </c>
-      <c r="H48" s="49" t="s">
+      <c r="F48" s="30">
+        <v>0</v>
+      </c>
+      <c r="H48" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="I48" s="49" t="s">
+      <c r="I48" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50" t="s">
+      <c r="J48" s="36"/>
+      <c r="K48" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="22">
         <v>16</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="22">
         <v>300000000</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="22">
         <v>750000000</v>
       </c>
-      <c r="F49" s="44">
-        <v>0</v>
-      </c>
-      <c r="H49" s="49" t="s">
+      <c r="F49" s="30">
+        <v>0</v>
+      </c>
+      <c r="H49" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="I49" s="49" t="s">
+      <c r="I49" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50" t="s">
+      <c r="J49" s="36"/>
+      <c r="K49" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="22">
         <v>24</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="22">
         <v>300000000</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F50" s="44">
-        <v>0</v>
-      </c>
-      <c r="H50" s="49" t="s">
+      <c r="F50" s="30">
+        <v>0</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="I50" s="49" t="s">
+      <c r="I50" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50" t="s">
+      <c r="J50" s="36"/>
+      <c r="K50" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="36" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="22">
         <v>24</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F51" s="44">
-        <v>0</v>
-      </c>
-      <c r="H51" s="49" t="s">
+      <c r="F51" s="30">
+        <v>0</v>
+      </c>
+      <c r="H51" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="I51" s="49" t="s">
+      <c r="I51" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50" t="s">
+      <c r="J51" s="36"/>
+      <c r="K51" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="L51" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="22">
         <v>24</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="22">
         <v>20000000</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F52" s="44">
-        <v>0</v>
-      </c>
-      <c r="H52" s="49" t="s">
+      <c r="F52" s="30">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="I52" s="49" t="s">
+      <c r="I52" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50" t="s">
+      <c r="J52" s="36"/>
+      <c r="K52" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L52" s="50" t="s">
+      <c r="L52" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="22">
         <v>16</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="22">
         <v>300000000</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F53" s="44">
-        <v>0</v>
-      </c>
-      <c r="H53" s="49" t="s">
+      <c r="F53" s="30">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="I53" s="49" t="s">
+      <c r="I53" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50" t="s">
+      <c r="J53" s="36"/>
+      <c r="K53" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L53" s="50" t="s">
+      <c r="L53" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="22">
         <v>24</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="22">
         <v>300000000</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F54" s="44">
-        <v>0</v>
-      </c>
-      <c r="H54" s="49" t="s">
+      <c r="F54" s="30">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="I54" s="49" t="s">
+      <c r="I54" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50" t="s">
+      <c r="J54" s="36"/>
+      <c r="K54" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L54" s="50" t="s">
+      <c r="L54" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="22">
         <v>48</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="22">
         <v>1800000000</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F55" s="30">
         <v>500000000</v>
       </c>
-      <c r="H55" s="49" t="s">
+      <c r="H55" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50" t="s">
+      <c r="J55" s="36"/>
+      <c r="K55" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L55" s="50" t="s">
+      <c r="L55" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="22">
         <v>24</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="22">
         <v>300000000</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F56" s="44">
-        <v>0</v>
-      </c>
-      <c r="H56" s="49" t="s">
+      <c r="F56" s="30">
+        <v>0</v>
+      </c>
+      <c r="H56" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I56" s="49" t="s">
+      <c r="I56" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50" t="s">
+      <c r="J56" s="36"/>
+      <c r="K56" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L56" s="50" t="s">
+      <c r="L56" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="22">
         <v>24</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="22">
         <v>1000000000</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F57" s="44">
-        <v>0</v>
-      </c>
-      <c r="H57" s="49" t="s">
+      <c r="F57" s="30">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="I57" s="49" t="s">
+      <c r="I57" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50" t="s">
+      <c r="J57" s="36"/>
+      <c r="K57" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L57" s="50" t="s">
+      <c r="L57" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="22">
         <v>16</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="22">
         <v>20000000</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="22">
         <v>500000000</v>
       </c>
-      <c r="F58" s="44">
-        <v>0</v>
-      </c>
-      <c r="H58" s="49" t="s">
+      <c r="F58" s="30">
+        <v>0</v>
+      </c>
+      <c r="H58" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I58" s="49" t="s">
+      <c r="I58" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50" t="s">
+      <c r="J58" s="36"/>
+      <c r="K58" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L58" s="50" t="s">
+      <c r="L58" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="22">
         <v>24</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E59" s="36">
+      <c r="E59" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F59" s="44">
-        <v>0</v>
-      </c>
-      <c r="H59" s="49" t="s">
+      <c r="F59" s="30">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I59" s="49" t="s">
+      <c r="I59" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50" t="s">
+      <c r="J59" s="36"/>
+      <c r="K59" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L59" s="50" t="s">
+      <c r="L59" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="22">
         <v>24</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F60" s="44">
-        <v>0</v>
-      </c>
-      <c r="H60" s="49" t="s">
+      <c r="F60" s="30">
+        <v>0</v>
+      </c>
+      <c r="H60" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I60" s="49" t="s">
+      <c r="I60" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50" t="s">
+      <c r="J60" s="36"/>
+      <c r="K60" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L60" s="50" t="s">
+      <c r="L60" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="22">
         <v>24</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F61" s="44">
-        <v>0</v>
-      </c>
-      <c r="H61" s="49" t="s">
+      <c r="F61" s="30">
+        <v>0</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="I61" s="49" t="s">
+      <c r="I61" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50" t="s">
+      <c r="J61" s="36"/>
+      <c r="K61" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L61" s="50" t="s">
+      <c r="L61" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="22">
         <v>24</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="22">
         <v>300000000</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F62" s="44">
-        <v>0</v>
-      </c>
-      <c r="H62" s="49" t="s">
+      <c r="F62" s="30">
+        <v>0</v>
+      </c>
+      <c r="H62" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I62" s="49" t="s">
+      <c r="I62" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50" t="s">
+      <c r="J62" s="36"/>
+      <c r="K62" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L62" s="50" t="s">
+      <c r="L62" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="22">
         <v>16</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="22">
         <v>300000000</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F63" s="44">
-        <v>0</v>
-      </c>
-      <c r="H63" s="49" t="s">
+      <c r="F63" s="30">
+        <v>0</v>
+      </c>
+      <c r="H63" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="I63" s="49" t="s">
+      <c r="I63" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50" t="s">
+      <c r="J63" s="36"/>
+      <c r="K63" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L63" s="50" t="s">
+      <c r="L63" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="22">
         <v>16</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="22">
         <v>300000000</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F64" s="44">
-        <v>0</v>
-      </c>
-      <c r="H64" s="49" t="s">
+      <c r="F64" s="30">
+        <v>0</v>
+      </c>
+      <c r="H64" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="49" t="s">
+      <c r="I64" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50" t="s">
+      <c r="J64" s="36"/>
+      <c r="K64" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L64" s="50" t="s">
+      <c r="L64" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="22">
         <v>16</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="22">
         <v>20000000</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="22">
         <v>500000000</v>
       </c>
-      <c r="F65" s="44">
-        <v>0</v>
-      </c>
-      <c r="H65" s="49" t="s">
+      <c r="F65" s="30">
+        <v>0</v>
+      </c>
+      <c r="H65" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="I65" s="49" t="s">
+      <c r="I65" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50" t="s">
+      <c r="J65" s="36"/>
+      <c r="K65" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L65" s="50" t="s">
+      <c r="L65" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="22">
         <v>24</v>
       </c>
-      <c r="D66" s="36">
+      <c r="D66" s="22">
         <v>20000000</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="22">
         <v>1000000000</v>
       </c>
-      <c r="F66" s="44">
-        <v>0</v>
-      </c>
-      <c r="H66" s="49" t="s">
+      <c r="F66" s="30">
+        <v>0</v>
+      </c>
+      <c r="H66" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I66" s="49" t="s">
+      <c r="I66" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="52" t="s">
+      <c r="J66" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K66" s="50" t="s">
+      <c r="K66" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L66" s="50" t="s">
+      <c r="L66" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="22">
         <v>24</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="22">
         <v>1350000000</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="22">
         <v>3000000000</v>
       </c>
-      <c r="F67" s="44">
-        <v>0</v>
-      </c>
-      <c r="H67" s="49" t="s">
+      <c r="F67" s="30">
+        <v>0</v>
+      </c>
+      <c r="H67" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I67" s="49" t="s">
+      <c r="I67" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="52" t="s">
+      <c r="J67" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K67" s="50" t="s">
+      <c r="K67" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L67" s="50" t="s">
+      <c r="L67" s="36" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="22">
         <v>16</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="22">
         <v>300000000</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="22">
         <v>2000000000</v>
       </c>
-      <c r="F68" s="44">
-        <v>0</v>
-      </c>
-      <c r="H68" s="49" t="s">
+      <c r="F68" s="30">
+        <v>0</v>
+      </c>
+      <c r="H68" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="I68" s="49" t="s">
+      <c r="I68" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50" t="s">
+      <c r="J68" s="36"/>
+      <c r="K68" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L68" s="50" t="s">
+      <c r="L68" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="22">
         <v>16</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="22">
         <v>20000000</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="22">
         <v>500000000</v>
       </c>
-      <c r="F69" s="44">
-        <v>0</v>
-      </c>
-      <c r="H69" s="49" t="s">
+      <c r="F69" s="30">
+        <v>0</v>
+      </c>
+      <c r="H69" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I69" s="49" t="s">
+      <c r="I69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J69" s="52" t="s">
+      <c r="J69" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L69" s="50" t="s">
+      <c r="L69" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="32">
         <v>16</v>
       </c>
-      <c r="D70" s="46">
+      <c r="D70" s="32">
         <v>20000000</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="32">
         <v>100000000</v>
       </c>
-      <c r="F70" s="47">
-        <v>0</v>
-      </c>
-      <c r="H70" s="49" t="s">
+      <c r="F70" s="33">
+        <v>0</v>
+      </c>
+      <c r="H70" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="I70" s="49" t="s">
+      <c r="I70" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J70" s="52" t="s">
+      <c r="J70" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="K70" s="50" t="s">
+      <c r="K70" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L70" s="50" t="s">
+      <c r="L70" s="36" t="s">
         <v>186</v>
       </c>
     </row>
